--- a/Code/Results/Cases/Case_5_66/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_66/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.08479564000463</v>
+        <v>12.79505811484151</v>
       </c>
       <c r="C2">
-        <v>14.72251892803004</v>
+        <v>9.25342911341879</v>
       </c>
       <c r="D2">
-        <v>3.984229549501189</v>
+        <v>4.057763500715835</v>
       </c>
       <c r="E2">
-        <v>11.38768064733797</v>
+        <v>11.54444127637297</v>
       </c>
       <c r="F2">
-        <v>17.80010737362803</v>
+        <v>21.2116235354226</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.19730006408308</v>
+        <v>14.53772324066791</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.56345620003493</v>
+        <v>18.84733671906793</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.72371349621599</v>
+        <v>12.14100485638194</v>
       </c>
       <c r="C3">
-        <v>13.90603788495892</v>
+        <v>8.823131878925045</v>
       </c>
       <c r="D3">
-        <v>3.862587584970225</v>
+        <v>4.015209686612613</v>
       </c>
       <c r="E3">
-        <v>10.80728570057656</v>
+        <v>11.47080857032249</v>
       </c>
       <c r="F3">
-        <v>17.1851037949158</v>
+        <v>21.20815380122405</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.02031059431681</v>
+        <v>14.22207651298686</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.34584731286043</v>
+        <v>18.91520893882564</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.84066801935132</v>
+        <v>11.72132454061441</v>
       </c>
       <c r="C4">
-        <v>13.38037895444632</v>
+        <v>8.546677294980002</v>
       </c>
       <c r="D4">
-        <v>3.785955517814255</v>
+        <v>3.988735954430692</v>
       </c>
       <c r="E4">
-        <v>10.45233590941418</v>
+        <v>11.4304968455905</v>
       </c>
       <c r="F4">
-        <v>16.82386269567316</v>
+        <v>21.21499624123001</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.25931264280308</v>
+        <v>14.02759131164497</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.23297296155908</v>
+        <v>18.96380518993146</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.46888362493878</v>
+        <v>11.54593226385322</v>
       </c>
       <c r="C5">
-        <v>13.16014502116469</v>
+        <v>8.431038499508889</v>
       </c>
       <c r="D5">
-        <v>3.754268607048051</v>
+        <v>3.977867639515526</v>
       </c>
       <c r="E5">
-        <v>10.30822569294838</v>
+        <v>11.41531406874008</v>
       </c>
       <c r="F5">
-        <v>16.68092061601348</v>
+        <v>21.22003410938305</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.93952212307927</v>
+        <v>13.94828026664586</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.19203722069381</v>
+        <v>18.98533822511556</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.40642750241837</v>
+        <v>11.51655050331582</v>
       </c>
       <c r="C6">
-        <v>13.12321488866559</v>
+        <v>8.411659923897888</v>
       </c>
       <c r="D6">
-        <v>3.748980250683303</v>
+        <v>3.976058329993121</v>
       </c>
       <c r="E6">
-        <v>10.28433436879373</v>
+        <v>11.41286846491391</v>
       </c>
       <c r="F6">
-        <v>16.65744702209987</v>
+        <v>21.22100626224109</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.88583573862911</v>
+        <v>13.9351106765938</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.18554062495069</v>
+        <v>18.98901790344992</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.83570236809314</v>
+        <v>11.71897656887422</v>
       </c>
       <c r="C7">
-        <v>13.3774330449411</v>
+        <v>8.545129677889705</v>
       </c>
       <c r="D7">
-        <v>3.785529992523128</v>
+        <v>3.988589695610226</v>
       </c>
       <c r="E7">
-        <v>10.45038996650534</v>
+        <v>11.43028703146088</v>
       </c>
       <c r="F7">
-        <v>16.82191746417123</v>
+        <v>21.2150550863212</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -653,13 +653,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.25503906421675</v>
+        <v>14.02652177273795</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.23240061426635</v>
+        <v>18.96408860366136</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.62529457880892</v>
+        <v>12.57339304747119</v>
       </c>
       <c r="C8">
-        <v>14.44609637588995</v>
+        <v>9.107659737878992</v>
       </c>
       <c r="D8">
-        <v>3.942707755007194</v>
+        <v>4.04316672844626</v>
       </c>
       <c r="E8">
-        <v>11.18736492434307</v>
+        <v>11.51804437614496</v>
       </c>
       <c r="F8">
-        <v>17.58474790663956</v>
+        <v>21.20856152742327</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.79939805977283</v>
+        <v>14.42909576005058</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.48403563265056</v>
+        <v>18.86929584529748</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.76130552869364</v>
+        <v>14.09897259975207</v>
       </c>
       <c r="C9">
-        <v>16.3457612502636</v>
+        <v>10.10999521382393</v>
       </c>
       <c r="D9">
-        <v>4.234360699592174</v>
+        <v>4.147156059211881</v>
       </c>
       <c r="E9">
-        <v>12.63757488101717</v>
+        <v>11.72831648210889</v>
       </c>
       <c r="F9">
-        <v>19.20384870891146</v>
+        <v>21.26720711001023</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.52646849982671</v>
+        <v>15.20837179561114</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.14764671355018</v>
+        <v>18.73880019948344</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.84162835693109</v>
+        <v>15.12158952834521</v>
       </c>
       <c r="C10">
-        <v>17.619697043563</v>
+        <v>10.78109782053151</v>
       </c>
       <c r="D10">
-        <v>4.437224236711092</v>
+        <v>4.22132077808594</v>
       </c>
       <c r="E10">
-        <v>13.8809793427674</v>
+        <v>11.90497093129738</v>
       </c>
       <c r="F10">
-        <v>20.46004794339271</v>
+        <v>21.35388469130676</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.3509611420067</v>
+        <v>15.76859440031216</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.74497519057182</v>
+        <v>18.67728926618781</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.74049458103563</v>
+        <v>15.56444518437468</v>
       </c>
       <c r="C11">
-        <v>18.17270190731603</v>
+        <v>11.07162116396645</v>
       </c>
       <c r="D11">
-        <v>4.52682036624731</v>
+        <v>4.254495616632835</v>
       </c>
       <c r="E11">
-        <v>14.46460177115514</v>
+        <v>11.98986400231085</v>
       </c>
       <c r="F11">
-        <v>21.04453287452284</v>
+        <v>21.40274170417257</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.14334490995806</v>
+        <v>16.01959224878223</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.04145210847391</v>
+        <v>18.65688088750017</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.07414019539304</v>
+        <v>15.72886609835306</v>
       </c>
       <c r="C12">
-        <v>18.37830738913867</v>
+        <v>11.17947343652028</v>
       </c>
       <c r="D12">
-        <v>4.560347787514467</v>
+        <v>4.266970654267781</v>
       </c>
       <c r="E12">
-        <v>14.68331565756477</v>
+        <v>12.02263562002407</v>
       </c>
       <c r="F12">
-        <v>21.26764642851519</v>
+        <v>21.42259045991321</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.43811344525628</v>
+        <v>16.11399380570401</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.15733367399513</v>
+        <v>18.65024980406745</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.00258163687062</v>
+        <v>15.69360186619621</v>
       </c>
       <c r="C13">
-        <v>18.33419556179447</v>
+        <v>11.15634225287202</v>
       </c>
       <c r="D13">
-        <v>4.553145073412505</v>
+        <v>4.264287928499021</v>
       </c>
       <c r="E13">
-        <v>14.63631123156991</v>
+        <v>12.01555034473393</v>
       </c>
       <c r="F13">
-        <v>21.21951682452202</v>
+        <v>21.4182558923073</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.37486307386444</v>
+        <v>16.09369286934603</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.13221507474503</v>
+        <v>18.65162901161905</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.76807823427113</v>
+        <v>15.57803824155644</v>
       </c>
       <c r="C14">
-        <v>18.18969337217808</v>
+        <v>11.08053777710716</v>
       </c>
       <c r="D14">
-        <v>4.529586788790711</v>
+        <v>4.255523737236902</v>
       </c>
       <c r="E14">
-        <v>14.48264056420869</v>
+        <v>11.99254779010716</v>
       </c>
       <c r="F14">
-        <v>21.06285326954271</v>
+        <v>21.40434771901517</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.16770101023243</v>
+        <v>16.02737217223863</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.05091308023003</v>
+        <v>18.65631331285573</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.62356386550872</v>
+        <v>15.50682341952733</v>
       </c>
       <c r="C15">
-        <v>18.10068646917607</v>
+        <v>11.03382266644391</v>
       </c>
       <c r="D15">
-        <v>4.515104105834205</v>
+        <v>4.250143822745506</v>
       </c>
       <c r="E15">
-        <v>14.38821882712389</v>
+        <v>11.97853854586353</v>
       </c>
       <c r="F15">
-        <v>20.96712214695791</v>
+        <v>21.39600378582209</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.04012297992015</v>
+        <v>15.98666208653555</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.00158513451588</v>
+        <v>18.6593256867897</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.78193755431956</v>
+        <v>15.09219235826528</v>
       </c>
       <c r="C16">
-        <v>17.58302365096773</v>
+        <v>10.76181078693402</v>
       </c>
       <c r="D16">
-        <v>4.431313555630691</v>
+        <v>4.219140826797373</v>
       </c>
       <c r="E16">
-        <v>13.84250978684837</v>
+        <v>11.89951187626085</v>
       </c>
       <c r="F16">
-        <v>20.42210415469312</v>
+        <v>21.35088085006237</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.29843019073566</v>
+        <v>15.75210559929972</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.7261024792915</v>
+        <v>18.67877610687568</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.25352846307818</v>
+        <v>14.83205648302689</v>
       </c>
       <c r="C17">
-        <v>17.25866412453841</v>
+        <v>10.5911282008131</v>
       </c>
       <c r="D17">
-        <v>4.379211367621807</v>
+        <v>4.199972533661886</v>
       </c>
       <c r="E17">
-        <v>13.50350316182925</v>
+        <v>11.85217351612605</v>
       </c>
       <c r="F17">
-        <v>20.09101627580971</v>
+        <v>21.32560908828809</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.83387655314948</v>
+        <v>15.60715907849706</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.56348227767064</v>
+        <v>18.69265403353904</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.94512609726379</v>
+        <v>14.68033370125051</v>
       </c>
       <c r="C18">
-        <v>17.06960405732829</v>
+        <v>10.49156821245636</v>
       </c>
       <c r="D18">
-        <v>4.348991266259729</v>
+        <v>4.188894822603188</v>
       </c>
       <c r="E18">
-        <v>13.30691843762341</v>
+        <v>11.82537407436008</v>
       </c>
       <c r="F18">
-        <v>19.9018138641393</v>
+        <v>21.31196139605505</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.56313206077803</v>
+        <v>15.52343239917072</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.47227448268134</v>
+        <v>18.70134864789435</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.83993502523635</v>
+        <v>14.62860463990202</v>
       </c>
       <c r="C19">
-        <v>17.00516269245236</v>
+        <v>10.45762186984085</v>
       </c>
       <c r="D19">
-        <v>4.338716408257421</v>
+        <v>4.185135266915792</v>
       </c>
       <c r="E19">
-        <v>13.24008020829167</v>
+        <v>11.81637461187917</v>
       </c>
       <c r="F19">
-        <v>19.83796784000246</v>
+        <v>21.30749322614092</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.47085038281373</v>
+        <v>15.4950255334012</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.44179100316859</v>
+        <v>18.70441458932848</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.3102410617646</v>
+        <v>14.85996620816981</v>
       </c>
       <c r="C20">
-        <v>17.29345117351268</v>
+        <v>10.60944160363785</v>
       </c>
       <c r="D20">
-        <v>4.384783959093898</v>
+        <v>4.202018525024258</v>
       </c>
       <c r="E20">
-        <v>13.53975538719215</v>
+        <v>11.85716862668395</v>
       </c>
       <c r="F20">
-        <v>20.12613455217467</v>
+        <v>21.32820745896985</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.88369523674074</v>
+        <v>15.62262654735233</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.58055222517552</v>
+        <v>18.69110291260539</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.83713958587906</v>
+        <v>15.61207153456377</v>
       </c>
       <c r="C21">
-        <v>18.23224032319271</v>
+        <v>11.10286235973178</v>
       </c>
       <c r="D21">
-        <v>4.536517401396861</v>
+        <v>4.258100420375604</v>
       </c>
       <c r="E21">
-        <v>14.52783836506533</v>
+        <v>11.99928747600851</v>
       </c>
       <c r="F21">
-        <v>21.10882137771932</v>
+        <v>21.40839638792788</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.22869211936664</v>
+        <v>16.0468704017787</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.07469502254349</v>
+        <v>18.65490758399685</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.79584568560945</v>
+        <v>16.08448177233265</v>
       </c>
       <c r="C22">
-        <v>18.82362467526375</v>
+        <v>11.41272268606469</v>
       </c>
       <c r="D22">
-        <v>4.633343925787052</v>
+        <v>4.294239933918087</v>
       </c>
       <c r="E22">
-        <v>15.16033117641727</v>
+        <v>12.09579638627977</v>
       </c>
       <c r="F22">
-        <v>21.76142985906339</v>
+        <v>21.46865414012546</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.07695373929632</v>
+        <v>16.32033522414047</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.4187216251259</v>
+        <v>18.63764988466365</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.28772102552909</v>
+        <v>15.83411703479725</v>
       </c>
       <c r="C23">
-        <v>18.51001435875011</v>
+        <v>11.24851018139966</v>
       </c>
       <c r="D23">
-        <v>4.581883843886112</v>
+        <v>4.275000683146411</v>
       </c>
       <c r="E23">
-        <v>14.82392233657645</v>
+        <v>12.04396540770485</v>
       </c>
       <c r="F23">
-        <v>21.41219420735851</v>
+        <v>21.43577851316298</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.62699481236409</v>
+        <v>16.17475873923047</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.23316362223461</v>
+        <v>18.64627276864222</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.28461567106834</v>
+        <v>14.84735496661251</v>
       </c>
       <c r="C24">
-        <v>17.2777319897308</v>
+        <v>10.60116657250661</v>
       </c>
       <c r="D24">
-        <v>4.382265417468755</v>
+        <v>4.201093711234425</v>
       </c>
       <c r="E24">
-        <v>13.52337101531267</v>
+        <v>11.85490903931289</v>
       </c>
       <c r="F24">
-        <v>20.11025400738244</v>
+        <v>21.32702998952215</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.86118363850304</v>
+        <v>15.61563492792555</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.57282778956927</v>
+        <v>18.69180194461335</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.9525389271399</v>
+        <v>13.70310366021958</v>
       </c>
       <c r="C25">
-        <v>15.85314158311204</v>
+        <v>9.850071848488298</v>
       </c>
       <c r="D25">
-        <v>4.157382497175709</v>
+        <v>4.119389504970663</v>
       </c>
       <c r="E25">
-        <v>12.24545028133723</v>
+        <v>11.6674496380111</v>
       </c>
       <c r="F25">
-        <v>18.75356596612315</v>
+        <v>21.24368185889164</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.82055827906003</v>
+        <v>14.9992964751391</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.9492009846737</v>
+        <v>18.76810836994707</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_66/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_66/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.79505811484151</v>
+        <v>21.08479564000463</v>
       </c>
       <c r="C2">
-        <v>9.25342911341879</v>
+        <v>14.72251892802995</v>
       </c>
       <c r="D2">
-        <v>4.057763500715835</v>
+        <v>3.984229549501112</v>
       </c>
       <c r="E2">
-        <v>11.54444127637297</v>
+        <v>11.38768064733797</v>
       </c>
       <c r="F2">
-        <v>21.2116235354226</v>
+        <v>17.80010737362809</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.53772324066791</v>
+        <v>18.19730006408306</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.84733671906793</v>
+        <v>13.56345620003497</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.14100485638194</v>
+        <v>19.72371349621601</v>
       </c>
       <c r="C3">
-        <v>8.823131878925045</v>
+        <v>13.90603788495884</v>
       </c>
       <c r="D3">
-        <v>4.015209686612613</v>
+        <v>3.862587584970274</v>
       </c>
       <c r="E3">
-        <v>11.47080857032249</v>
+        <v>10.80728570057659</v>
       </c>
       <c r="F3">
-        <v>21.20815380122405</v>
+        <v>17.18510379491572</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.22207651298686</v>
+        <v>17.0203105943168</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.91520893882564</v>
+        <v>13.34584731286038</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.72132454061441</v>
+        <v>18.84066801935139</v>
       </c>
       <c r="C4">
-        <v>8.546677294980002</v>
+        <v>13.38037895444625</v>
       </c>
       <c r="D4">
-        <v>3.988735954430692</v>
+        <v>3.78595551781426</v>
       </c>
       <c r="E4">
-        <v>11.4304968455905</v>
+        <v>10.45233590941417</v>
       </c>
       <c r="F4">
-        <v>21.21499624123001</v>
+        <v>16.82386269567301</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.02759131164497</v>
+        <v>16.2593126428031</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.96380518993146</v>
+        <v>13.23297296155896</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.54593226385322</v>
+        <v>18.46888362493877</v>
       </c>
       <c r="C5">
-        <v>8.431038499508889</v>
+        <v>13.16014502116468</v>
       </c>
       <c r="D5">
-        <v>3.977867639515526</v>
+        <v>3.754268607048375</v>
       </c>
       <c r="E5">
-        <v>11.41531406874008</v>
+        <v>10.30822569294842</v>
       </c>
       <c r="F5">
-        <v>21.22003410938305</v>
+        <v>16.68092061601346</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.94828026664586</v>
+        <v>15.93952212307923</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.98533822511556</v>
+        <v>13.19203722069387</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.51655050331582</v>
+        <v>18.40642750241834</v>
       </c>
       <c r="C6">
-        <v>8.411659923897888</v>
+        <v>13.12321488866557</v>
       </c>
       <c r="D6">
-        <v>3.976058329993121</v>
+        <v>3.748980250683427</v>
       </c>
       <c r="E6">
-        <v>11.41286846491391</v>
+        <v>10.28433436879372</v>
       </c>
       <c r="F6">
-        <v>21.22100626224109</v>
+        <v>16.6574470220999</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.9351106765938</v>
+        <v>15.88583573862911</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.98901790344992</v>
+        <v>13.18554062495072</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.71897656887422</v>
+        <v>18.83570236809319</v>
       </c>
       <c r="C7">
-        <v>8.545129677889705</v>
+        <v>13.37743304494104</v>
       </c>
       <c r="D7">
-        <v>3.988589695610226</v>
+        <v>3.78552999252315</v>
       </c>
       <c r="E7">
-        <v>11.43028703146088</v>
+        <v>10.45038996650532</v>
       </c>
       <c r="F7">
-        <v>21.2150550863212</v>
+        <v>16.82191746417115</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -653,13 +653,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.02652177273795</v>
+        <v>16.25503906421677</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.96408860366136</v>
+        <v>13.2324006142663</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.57339304747119</v>
+        <v>20.62529457880899</v>
       </c>
       <c r="C8">
-        <v>9.107659737878992</v>
+        <v>14.44609637588998</v>
       </c>
       <c r="D8">
-        <v>4.04316672844626</v>
+        <v>3.942707755007183</v>
       </c>
       <c r="E8">
-        <v>11.51804437614496</v>
+        <v>11.1873649243431</v>
       </c>
       <c r="F8">
-        <v>21.20856152742327</v>
+        <v>17.5847479066394</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.42909576005058</v>
+        <v>17.79939805977287</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.86929584529748</v>
+        <v>13.4840356326504</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.09897259975207</v>
+        <v>23.7613055286937</v>
       </c>
       <c r="C9">
-        <v>10.10999521382393</v>
+        <v>16.34576125026352</v>
       </c>
       <c r="D9">
-        <v>4.147156059211881</v>
+        <v>4.234360699592137</v>
       </c>
       <c r="E9">
-        <v>11.72831648210889</v>
+        <v>12.63757488101718</v>
       </c>
       <c r="F9">
-        <v>21.26720711001023</v>
+        <v>19.2038487089114</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.20837179561114</v>
+        <v>20.52646849982675</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.73880019948344</v>
+        <v>14.14764671355012</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.12158952834521</v>
+        <v>25.84162835693109</v>
       </c>
       <c r="C10">
-        <v>10.78109782053151</v>
+        <v>17.619697043563</v>
       </c>
       <c r="D10">
-        <v>4.22132077808594</v>
+        <v>4.437224236711187</v>
       </c>
       <c r="E10">
-        <v>11.90497093129738</v>
+        <v>13.88097934276733</v>
       </c>
       <c r="F10">
-        <v>21.35388469130676</v>
+        <v>20.46004794339269</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.76859440031216</v>
+        <v>22.35096114200665</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.67728926618781</v>
+        <v>14.74497519057182</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.56444518437468</v>
+        <v>26.74049458103557</v>
       </c>
       <c r="C11">
-        <v>11.07162116396645</v>
+        <v>18.17270190731601</v>
       </c>
       <c r="D11">
-        <v>4.254495616632835</v>
+        <v>4.526820366247337</v>
       </c>
       <c r="E11">
-        <v>11.98986400231085</v>
+        <v>14.46460177115513</v>
       </c>
       <c r="F11">
-        <v>21.40274170417257</v>
+        <v>21.04453287452282</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.01959224878223</v>
+        <v>23.14334490995802</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.65688088750017</v>
+        <v>15.04145210847392</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.72886609835306</v>
+        <v>27.07414019539301</v>
       </c>
       <c r="C12">
-        <v>11.17947343652028</v>
+        <v>18.37830738913878</v>
       </c>
       <c r="D12">
-        <v>4.266970654267781</v>
+        <v>4.560347787514534</v>
       </c>
       <c r="E12">
-        <v>12.02263562002407</v>
+        <v>14.68331565756473</v>
       </c>
       <c r="F12">
-        <v>21.42259045991321</v>
+        <v>21.26764642851524</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.11399380570401</v>
+        <v>23.43811344525625</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.65024980406745</v>
+        <v>15.15733367399517</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.69360186619621</v>
+        <v>27.00258163687063</v>
       </c>
       <c r="C13">
-        <v>11.15634225287202</v>
+        <v>18.3341955617944</v>
       </c>
       <c r="D13">
-        <v>4.264287928499021</v>
+        <v>4.55314507341259</v>
       </c>
       <c r="E13">
-        <v>12.01555034473393</v>
+        <v>14.63631123156994</v>
       </c>
       <c r="F13">
-        <v>21.4182558923073</v>
+        <v>21.21951682452205</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.09369286934603</v>
+        <v>23.37486307386444</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.65162901161905</v>
+        <v>15.13221507474507</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.57803824155644</v>
+        <v>26.76807823427106</v>
       </c>
       <c r="C14">
-        <v>11.08053777710716</v>
+        <v>18.1896933721781</v>
       </c>
       <c r="D14">
-        <v>4.255523737236902</v>
+        <v>4.529586788790818</v>
       </c>
       <c r="E14">
-        <v>11.99254779010716</v>
+        <v>14.48264056420865</v>
       </c>
       <c r="F14">
-        <v>21.40434771901517</v>
+        <v>21.06285326954273</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.02737217223863</v>
+        <v>23.16770101023236</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.65631331285573</v>
+        <v>15.0509130802301</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.50682341952733</v>
+        <v>26.6235638655087</v>
       </c>
       <c r="C15">
-        <v>11.03382266644391</v>
+        <v>18.10068646917605</v>
       </c>
       <c r="D15">
-        <v>4.250143822745506</v>
+        <v>4.515104105834271</v>
       </c>
       <c r="E15">
-        <v>11.97853854586353</v>
+        <v>14.38821882712387</v>
       </c>
       <c r="F15">
-        <v>21.39600378582209</v>
+        <v>20.96712214695798</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.98666208653555</v>
+        <v>23.04012297992012</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.6593256867897</v>
+        <v>15.00158513451595</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.09219235826528</v>
+        <v>25.78193755431958</v>
       </c>
       <c r="C16">
-        <v>10.76181078693402</v>
+        <v>17.58302365096781</v>
       </c>
       <c r="D16">
-        <v>4.219140826797373</v>
+        <v>4.431313555630786</v>
       </c>
       <c r="E16">
-        <v>11.89951187626085</v>
+        <v>13.84250978684841</v>
       </c>
       <c r="F16">
-        <v>21.35088085006237</v>
+        <v>20.42210415469311</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.75210559929972</v>
+        <v>22.29843019073571</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.67877610687568</v>
+        <v>14.72610247929148</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.83205648302689</v>
+        <v>25.25352846307831</v>
       </c>
       <c r="C17">
-        <v>10.5911282008131</v>
+        <v>17.2586641245384</v>
       </c>
       <c r="D17">
-        <v>4.199972533661886</v>
+        <v>4.379211367621711</v>
       </c>
       <c r="E17">
-        <v>11.85217351612605</v>
+        <v>13.50350316182927</v>
       </c>
       <c r="F17">
-        <v>21.32560908828809</v>
+        <v>20.09101627580972</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.60715907849706</v>
+        <v>21.83387655314953</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.69265403353904</v>
+        <v>14.5634822776706</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.68033370125051</v>
+        <v>24.94512609726387</v>
       </c>
       <c r="C18">
-        <v>10.49156821245636</v>
+        <v>17.06960405732826</v>
       </c>
       <c r="D18">
-        <v>4.188894822603188</v>
+        <v>4.348991266259742</v>
       </c>
       <c r="E18">
-        <v>11.82537407436008</v>
+        <v>13.30691843762345</v>
       </c>
       <c r="F18">
-        <v>21.31196139605505</v>
+        <v>19.90181386413932</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.52343239917072</v>
+        <v>21.56313206077809</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.70134864789435</v>
+        <v>14.47227448268131</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.62860463990202</v>
+        <v>24.83993502523638</v>
       </c>
       <c r="C19">
-        <v>10.45762186984085</v>
+        <v>17.00516269245232</v>
       </c>
       <c r="D19">
-        <v>4.185135266915792</v>
+        <v>4.338716408257459</v>
       </c>
       <c r="E19">
-        <v>11.81637461187917</v>
+        <v>13.24008020829164</v>
       </c>
       <c r="F19">
-        <v>21.30749322614092</v>
+        <v>19.83796784000245</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.4950255334012</v>
+        <v>21.47085038281372</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.70441458932848</v>
+        <v>14.44179100316857</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.85996620816981</v>
+        <v>25.31024106176457</v>
       </c>
       <c r="C20">
-        <v>10.60944160363785</v>
+        <v>17.29345117351261</v>
       </c>
       <c r="D20">
-        <v>4.202018525024258</v>
+        <v>4.384783959093949</v>
       </c>
       <c r="E20">
-        <v>11.85716862668395</v>
+        <v>13.53975538719213</v>
       </c>
       <c r="F20">
-        <v>21.32820745896985</v>
+        <v>20.12613455217469</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.62262654735233</v>
+        <v>21.88369523674071</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.69110291260539</v>
+        <v>14.58055222517558</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.61207153456377</v>
+        <v>26.83713958587908</v>
       </c>
       <c r="C21">
-        <v>11.10286235973178</v>
+        <v>18.23224032319269</v>
       </c>
       <c r="D21">
-        <v>4.258100420375604</v>
+        <v>4.536517401396794</v>
       </c>
       <c r="E21">
-        <v>11.99928747600851</v>
+        <v>14.52783836506528</v>
       </c>
       <c r="F21">
-        <v>21.40839638792788</v>
+        <v>21.10882137771936</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.0468704017787</v>
+        <v>23.2286921193666</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.65490758399685</v>
+        <v>15.07469502254355</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.08448177233265</v>
+        <v>27.7958456856094</v>
       </c>
       <c r="C22">
-        <v>11.41272268606469</v>
+        <v>18.82362467526377</v>
       </c>
       <c r="D22">
-        <v>4.294239933918087</v>
+        <v>4.633343925787059</v>
       </c>
       <c r="E22">
-        <v>12.09579638627977</v>
+        <v>15.16033117641724</v>
       </c>
       <c r="F22">
-        <v>21.46865414012546</v>
+        <v>21.76142985906339</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.32033522414047</v>
+        <v>24.07695373929629</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.63764988466365</v>
+        <v>15.41872162512591</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.83411703479725</v>
+        <v>27.28772102552909</v>
       </c>
       <c r="C23">
-        <v>11.24851018139966</v>
+        <v>18.51001435875003</v>
       </c>
       <c r="D23">
-        <v>4.275000683146411</v>
+        <v>4.581883843886047</v>
       </c>
       <c r="E23">
-        <v>12.04396540770485</v>
+        <v>14.82392233657637</v>
       </c>
       <c r="F23">
-        <v>21.43577851316298</v>
+        <v>21.41219420735845</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.17475873923047</v>
+        <v>23.62699481236407</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.64627276864222</v>
+        <v>15.23316362223456</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.84735496661251</v>
+        <v>25.28461567106836</v>
       </c>
       <c r="C24">
-        <v>10.60116657250661</v>
+        <v>17.27773198973077</v>
       </c>
       <c r="D24">
-        <v>4.201093711234425</v>
+        <v>4.382265417468907</v>
       </c>
       <c r="E24">
-        <v>11.85490903931289</v>
+        <v>13.52337101531263</v>
       </c>
       <c r="F24">
-        <v>21.32702998952215</v>
+        <v>20.11025400738239</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.61563492792555</v>
+        <v>21.86118363850303</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.69180194461335</v>
+        <v>14.57282778956923</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.70310366021958</v>
+        <v>22.95253892713996</v>
       </c>
       <c r="C25">
-        <v>9.850071848488298</v>
+        <v>15.85314158311184</v>
       </c>
       <c r="D25">
-        <v>4.119389504970663</v>
+        <v>4.157382497175708</v>
       </c>
       <c r="E25">
-        <v>11.6674496380111</v>
+        <v>12.24545028133722</v>
       </c>
       <c r="F25">
-        <v>21.24368185889164</v>
+        <v>18.7535659661231</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.9992964751391</v>
+        <v>19.82055827906005</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.76810836994707</v>
+        <v>13.94920098467365</v>
       </c>
     </row>
   </sheetData>
